--- a/state_results/Lakes/PukepukeLagoon_12a6a44bc0.xlsx
+++ b/state_results/Lakes/PukepukeLagoon_12a6a44bc0.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>
@@ -709,7 +709,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>mg chl-a /m2</t>
+          <t>mg chl-a /m3</t>
         </is>
       </c>
     </row>

--- a/state_results/Lakes/PukepukeLagoon_12a6a44bc0.xlsx
+++ b/state_results/Lakes/PukepukeLagoon_12a6a44bc0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="56">
   <si>
     <t>site name</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
   </si>
   <si>
     <t>Lake</t>
@@ -536,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:V39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,13 +627,13 @@
         <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2">
         <v>16</v>
       </c>
       <c r="G2">
-        <v>34.2640133790245</v>
+        <v>34.2574239755598</v>
       </c>
       <c r="H2">
         <v>183</v>
@@ -657,19 +660,19 @@
         <v>5531867.42326</v>
       </c>
       <c r="R2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -686,13 +689,13 @@
         <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3">
         <v>16</v>
       </c>
       <c r="G3">
-        <v>34.2640133790245</v>
+        <v>34.2574239755598</v>
       </c>
       <c r="H3">
         <v>183</v>
@@ -719,19 +722,19 @@
         <v>5531867.42326</v>
       </c>
       <c r="R3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -748,13 +751,13 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4">
-        <v>16</v>
+        <v>16.2</v>
       </c>
       <c r="G4">
-        <v>140.133730496366</v>
+        <v>140.126295472562</v>
       </c>
       <c r="H4">
         <v>2000</v>
@@ -787,19 +790,19 @@
         <v>5531867.42326</v>
       </c>
       <c r="R4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -816,13 +819,13 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5">
-        <v>16</v>
+        <v>16.2</v>
       </c>
       <c r="G5">
-        <v>140.133730496366</v>
+        <v>140.126295472562</v>
       </c>
       <c r="H5">
         <v>2000</v>
@@ -855,19 +858,19 @@
         <v>5531867.42326</v>
       </c>
       <c r="R5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -884,13 +887,13 @@
         <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6">
-        <v>16</v>
+        <v>16.2</v>
       </c>
       <c r="G6">
-        <v>140.133730496366</v>
+        <v>140.126295472562</v>
       </c>
       <c r="H6">
         <v>2000</v>
@@ -923,19 +926,19 @@
         <v>5531867.42326</v>
       </c>
       <c r="R6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -952,13 +955,13 @@
         <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7">
-        <v>16</v>
+        <v>16.2</v>
       </c>
       <c r="G7">
-        <v>140.133730496366</v>
+        <v>140.126295472562</v>
       </c>
       <c r="H7">
         <v>2000</v>
@@ -991,19 +994,19 @@
         <v>5531867.42326</v>
       </c>
       <c r="R7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1017,13 +1020,13 @@
         <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8">
-        <v>0.00345</v>
+        <v>0.00328</v>
       </c>
       <c r="G8">
-        <v>0.133340568035819</v>
+        <v>0.133301789162533</v>
       </c>
       <c r="H8">
         <v>1.01</v>
@@ -1032,7 +1035,7 @@
         <v>0.7418</v>
       </c>
       <c r="L8">
-        <v>0.00058</v>
+        <v>0.00052</v>
       </c>
       <c r="M8">
         <v>0.3948</v>
@@ -1050,19 +1053,19 @@
         <v>5531867.42326</v>
       </c>
       <c r="R8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1079,7 +1082,7 @@
         <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9">
         <v>2.21</v>
@@ -1112,19 +1115,19 @@
         <v>5531867.42326</v>
       </c>
       <c r="R9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1141,7 +1144,7 @@
         <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10">
         <v>2.21</v>
@@ -1174,19 +1177,19 @@
         <v>5531867.42326</v>
       </c>
       <c r="R10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1203,7 +1206,7 @@
         <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11">
         <v>0.3775</v>
@@ -1236,19 +1239,19 @@
         <v>5531867.42326</v>
       </c>
       <c r="R11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1265,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12">
         <v>0.0081</v>
@@ -1298,19 +1301,19 @@
         <v>5531867.42326</v>
       </c>
       <c r="R12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1327,13 +1330,13 @@
         <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13">
         <v>5.4</v>
       </c>
       <c r="G13">
-        <v>31.0442108235284</v>
+        <v>31.023239160485</v>
       </c>
       <c r="H13">
         <v>183</v>
@@ -1360,19 +1363,19 @@
         <v>5531867.42326</v>
       </c>
       <c r="R13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1389,13 +1392,13 @@
         <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14">
         <v>5.4</v>
       </c>
       <c r="G14">
-        <v>31.0442108235284</v>
+        <v>31.023239160485</v>
       </c>
       <c r="H14">
         <v>183</v>
@@ -1422,19 +1425,19 @@
         <v>5531867.42326</v>
       </c>
       <c r="R14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1451,19 +1454,19 @@
         <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="G15">
-        <v>104.920000321585</v>
+        <v>104.900241154969</v>
       </c>
       <c r="H15">
-        <v>689</v>
+        <v>688.8</v>
       </c>
       <c r="I15">
-        <v>482.9</v>
+        <v>482.88</v>
       </c>
       <c r="J15">
         <v>3.57142857142857</v>
@@ -1478,10 +1481,10 @@
         <v>136</v>
       </c>
       <c r="N15">
-        <v>236.2</v>
+        <v>236.496</v>
       </c>
       <c r="O15">
-        <v>411.9</v>
+        <v>411.752</v>
       </c>
       <c r="P15">
         <v>1792442.71298</v>
@@ -1490,19 +1493,19 @@
         <v>5531867.42326</v>
       </c>
       <c r="R15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1519,19 +1522,19 @@
         <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="G16">
-        <v>104.920000321585</v>
+        <v>104.900241154969</v>
       </c>
       <c r="H16">
-        <v>689</v>
+        <v>688.8</v>
       </c>
       <c r="I16">
-        <v>482.9</v>
+        <v>482.88</v>
       </c>
       <c r="J16">
         <v>3.57142857142857</v>
@@ -1546,10 +1549,10 @@
         <v>136</v>
       </c>
       <c r="N16">
-        <v>236.2</v>
+        <v>236.496</v>
       </c>
       <c r="O16">
-        <v>411.9</v>
+        <v>411.752</v>
       </c>
       <c r="P16">
         <v>1792442.71298</v>
@@ -1558,19 +1561,19 @@
         <v>5531867.42326</v>
       </c>
       <c r="R16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1587,19 +1590,19 @@
         <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="G17">
-        <v>104.920000321585</v>
+        <v>104.900241154969</v>
       </c>
       <c r="H17">
-        <v>689</v>
+        <v>688.8</v>
       </c>
       <c r="I17">
-        <v>482.9</v>
+        <v>482.88</v>
       </c>
       <c r="J17">
         <v>3.57142857142857</v>
@@ -1614,10 +1617,10 @@
         <v>136</v>
       </c>
       <c r="N17">
-        <v>236.2</v>
+        <v>236.496</v>
       </c>
       <c r="O17">
-        <v>411.9</v>
+        <v>411.752</v>
       </c>
       <c r="P17">
         <v>1792442.71298</v>
@@ -1626,19 +1629,19 @@
         <v>5531867.42326</v>
       </c>
       <c r="R17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1655,19 +1658,19 @@
         <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="G18">
-        <v>104.920000321585</v>
+        <v>104.900241154969</v>
       </c>
       <c r="H18">
-        <v>689</v>
+        <v>688.8</v>
       </c>
       <c r="I18">
-        <v>482.9</v>
+        <v>482.88</v>
       </c>
       <c r="J18">
         <v>3.57142857142857</v>
@@ -1682,10 +1685,10 @@
         <v>136</v>
       </c>
       <c r="N18">
-        <v>236.2</v>
+        <v>236.496</v>
       </c>
       <c r="O18">
-        <v>411.9</v>
+        <v>411.752</v>
       </c>
       <c r="P18">
         <v>1792442.71298</v>
@@ -1694,19 +1697,19 @@
         <v>5531867.42326</v>
       </c>
       <c r="R18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -1723,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19">
         <v>0.06136</v>
@@ -1756,19 +1759,19 @@
         <v>5531867.42326</v>
       </c>
       <c r="R19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -1785,7 +1788,7 @@
         <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20">
         <v>0.06136</v>
@@ -1818,19 +1821,19 @@
         <v>5531867.42326</v>
       </c>
       <c r="R20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -1844,13 +1847,13 @@
         <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21">
         <v>0.0055</v>
       </c>
       <c r="G21">
-        <v>0.193123062602605</v>
+        <v>0.193093159877177</v>
       </c>
       <c r="H21">
         <v>1.01</v>
@@ -1859,7 +1862,7 @@
         <v>0.9191</v>
       </c>
       <c r="L21">
-        <v>0.00102</v>
+        <v>0.001</v>
       </c>
       <c r="M21">
         <v>0.5478</v>
@@ -1877,19 +1880,19 @@
         <v>5531867.42326</v>
       </c>
       <c r="R21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -1903,7 +1906,7 @@
         <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22">
         <v>8.005000000000001</v>
@@ -1936,16 +1939,16 @@
         <v>5531867.42326</v>
       </c>
       <c r="R22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -1962,7 +1965,7 @@
         <v>42</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23">
         <v>2.21</v>
@@ -1995,19 +1998,19 @@
         <v>5531867.42326</v>
       </c>
       <c r="R23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -2024,7 +2027,7 @@
         <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24">
         <v>2.21</v>
@@ -2057,19 +2060,19 @@
         <v>5531867.42326</v>
       </c>
       <c r="R24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -2086,7 +2089,7 @@
         <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25">
         <v>0.2695</v>
@@ -2119,19 +2122,902 @@
         <v>5531867.42326</v>
       </c>
       <c r="R25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="V25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26">
+        <v>0.0009</v>
+      </c>
+      <c r="G26">
+        <v>4.00994444444444</v>
+      </c>
+      <c r="H26">
+        <v>60.5308</v>
+      </c>
+      <c r="I26">
+        <v>45.99818</v>
+      </c>
+      <c r="L26">
+        <v>0.4938</v>
+      </c>
+      <c r="M26">
+        <v>0.52073</v>
+      </c>
+      <c r="N26">
+        <v>0.73886</v>
+      </c>
+      <c r="O26">
+        <v>15.41185</v>
+      </c>
+      <c r="P26">
+        <v>1792442.71298</v>
+      </c>
+      <c r="Q26">
+        <v>5531867.42326</v>
+      </c>
+      <c r="R26" t="s">
+        <v>45</v>
+      </c>
+      <c r="S26" t="s">
+        <v>46</v>
+      </c>
+      <c r="T26" t="s">
+        <v>47</v>
+      </c>
+      <c r="U26" t="s">
+        <v>48</v>
+      </c>
+      <c r="V26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27">
+        <v>5.2</v>
+      </c>
+      <c r="G27">
+        <v>28.8234551793918</v>
+      </c>
+      <c r="H27">
+        <v>183</v>
+      </c>
+      <c r="I27">
+        <v>159</v>
+      </c>
+      <c r="L27">
+        <v>49</v>
+      </c>
+      <c r="M27">
+        <v>48</v>
+      </c>
+      <c r="N27">
+        <v>52.2</v>
+      </c>
+      <c r="O27">
+        <v>124.8</v>
+      </c>
+      <c r="P27">
+        <v>1792442.71298</v>
+      </c>
+      <c r="Q27">
+        <v>5531867.42326</v>
+      </c>
+      <c r="R27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S27" t="s">
+        <v>46</v>
+      </c>
+      <c r="T27" t="s">
+        <v>47</v>
+      </c>
+      <c r="U27" t="s">
+        <v>48</v>
+      </c>
+      <c r="V27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28">
+        <v>5.2</v>
+      </c>
+      <c r="G28">
+        <v>28.8234551793918</v>
+      </c>
+      <c r="H28">
+        <v>183</v>
+      </c>
+      <c r="I28">
+        <v>159</v>
+      </c>
+      <c r="L28">
+        <v>49</v>
+      </c>
+      <c r="M28">
+        <v>48</v>
+      </c>
+      <c r="N28">
+        <v>52.2</v>
+      </c>
+      <c r="O28">
+        <v>124.8</v>
+      </c>
+      <c r="P28">
+        <v>1792442.71298</v>
+      </c>
+      <c r="Q28">
+        <v>5531867.42326</v>
+      </c>
+      <c r="R28" t="s">
+        <v>45</v>
+      </c>
+      <c r="S28" t="s">
+        <v>46</v>
+      </c>
+      <c r="T28" t="s">
+        <v>47</v>
+      </c>
+      <c r="U28" t="s">
+        <v>48</v>
+      </c>
+      <c r="V28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29">
+        <v>20.8</v>
+      </c>
+      <c r="G29">
+        <v>98.4856238457177</v>
+      </c>
+      <c r="H29">
+        <v>688.8</v>
+      </c>
+      <c r="I29">
+        <v>460</v>
+      </c>
+      <c r="J29">
+        <v>3.33333333333333</v>
+      </c>
+      <c r="K29">
+        <v>16.6666666666667</v>
+      </c>
+      <c r="L29">
+        <v>8</v>
+      </c>
+      <c r="M29">
+        <v>123.8</v>
+      </c>
+      <c r="N29">
+        <v>196.72</v>
+      </c>
+      <c r="O29">
+        <v>401.32</v>
+      </c>
+      <c r="P29">
+        <v>1792442.71298</v>
+      </c>
+      <c r="Q29">
+        <v>5531867.42326</v>
+      </c>
+      <c r="R29" t="s">
+        <v>45</v>
+      </c>
+      <c r="S29" t="s">
+        <v>46</v>
+      </c>
+      <c r="T29" t="s">
+        <v>47</v>
+      </c>
+      <c r="U29" t="s">
+        <v>48</v>
+      </c>
+      <c r="V29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30">
+        <v>20.8</v>
+      </c>
+      <c r="G30">
+        <v>98.4856238457177</v>
+      </c>
+      <c r="H30">
+        <v>688.8</v>
+      </c>
+      <c r="I30">
+        <v>460</v>
+      </c>
+      <c r="J30">
+        <v>3.33333333333333</v>
+      </c>
+      <c r="K30">
+        <v>16.6666666666667</v>
+      </c>
+      <c r="L30">
+        <v>8</v>
+      </c>
+      <c r="M30">
+        <v>123.8</v>
+      </c>
+      <c r="N30">
+        <v>196.72</v>
+      </c>
+      <c r="O30">
+        <v>401.32</v>
+      </c>
+      <c r="P30">
+        <v>1792442.71298</v>
+      </c>
+      <c r="Q30">
+        <v>5531867.42326</v>
+      </c>
+      <c r="R30" t="s">
+        <v>45</v>
+      </c>
+      <c r="S30" t="s">
+        <v>46</v>
+      </c>
+      <c r="T30" t="s">
+        <v>47</v>
+      </c>
+      <c r="U30" t="s">
+        <v>48</v>
+      </c>
+      <c r="V30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31">
+        <v>20.8</v>
+      </c>
+      <c r="G31">
+        <v>98.4856238457177</v>
+      </c>
+      <c r="H31">
+        <v>688.8</v>
+      </c>
+      <c r="I31">
+        <v>460</v>
+      </c>
+      <c r="J31">
+        <v>3.33333333333333</v>
+      </c>
+      <c r="K31">
+        <v>16.6666666666667</v>
+      </c>
+      <c r="L31">
+        <v>8</v>
+      </c>
+      <c r="M31">
+        <v>123.8</v>
+      </c>
+      <c r="N31">
+        <v>196.72</v>
+      </c>
+      <c r="O31">
+        <v>401.32</v>
+      </c>
+      <c r="P31">
+        <v>1792442.71298</v>
+      </c>
+      <c r="Q31">
+        <v>5531867.42326</v>
+      </c>
+      <c r="R31" t="s">
+        <v>45</v>
+      </c>
+      <c r="S31" t="s">
+        <v>46</v>
+      </c>
+      <c r="T31" t="s">
+        <v>47</v>
+      </c>
+      <c r="U31" t="s">
+        <v>48</v>
+      </c>
+      <c r="V31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32">
+        <v>20.8</v>
+      </c>
+      <c r="G32">
+        <v>98.4856238457177</v>
+      </c>
+      <c r="H32">
+        <v>688.8</v>
+      </c>
+      <c r="I32">
+        <v>460</v>
+      </c>
+      <c r="J32">
+        <v>3.33333333333333</v>
+      </c>
+      <c r="K32">
+        <v>16.6666666666667</v>
+      </c>
+      <c r="L32">
+        <v>8</v>
+      </c>
+      <c r="M32">
+        <v>123.8</v>
+      </c>
+      <c r="N32">
+        <v>196.72</v>
+      </c>
+      <c r="O32">
+        <v>401.32</v>
+      </c>
+      <c r="P32">
+        <v>1792442.71298</v>
+      </c>
+      <c r="Q32">
+        <v>5531867.42326</v>
+      </c>
+      <c r="R32" t="s">
+        <v>45</v>
+      </c>
+      <c r="S32" t="s">
+        <v>46</v>
+      </c>
+      <c r="T32" t="s">
+        <v>47</v>
+      </c>
+      <c r="U32" t="s">
+        <v>48</v>
+      </c>
+      <c r="V32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33">
+        <v>0.0385</v>
+      </c>
+      <c r="G33">
+        <v>0.261219663223189</v>
+      </c>
+      <c r="H33">
+        <v>4.635</v>
+      </c>
+      <c r="I33">
+        <v>1.02305</v>
+      </c>
+      <c r="L33">
+        <v>0.0385</v>
+      </c>
+      <c r="M33">
+        <v>0.13308</v>
+      </c>
+      <c r="N33">
+        <v>0.21882</v>
+      </c>
+      <c r="O33">
+        <v>0.62668</v>
+      </c>
+      <c r="P33">
+        <v>1792442.71298</v>
+      </c>
+      <c r="Q33">
+        <v>5531867.42326</v>
+      </c>
+      <c r="R33" t="s">
+        <v>45</v>
+      </c>
+      <c r="S33" t="s">
+        <v>46</v>
+      </c>
+      <c r="T33" t="s">
+        <v>47</v>
+      </c>
+      <c r="U33" t="s">
+        <v>48</v>
+      </c>
+      <c r="V33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34">
+        <v>0.0385</v>
+      </c>
+      <c r="G34">
+        <v>0.261219663223189</v>
+      </c>
+      <c r="H34">
+        <v>4.635</v>
+      </c>
+      <c r="I34">
+        <v>1.02305</v>
+      </c>
+      <c r="L34">
+        <v>0.0385</v>
+      </c>
+      <c r="M34">
+        <v>0.13308</v>
+      </c>
+      <c r="N34">
+        <v>0.21882</v>
+      </c>
+      <c r="O34">
+        <v>0.62668</v>
+      </c>
+      <c r="P34">
+        <v>1792442.71298</v>
+      </c>
+      <c r="Q34">
+        <v>5531867.42326</v>
+      </c>
+      <c r="R34" t="s">
+        <v>45</v>
+      </c>
+      <c r="S34" t="s">
+        <v>46</v>
+      </c>
+      <c r="T34" t="s">
+        <v>47</v>
+      </c>
+      <c r="U34" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35">
+        <v>0.005</v>
+      </c>
+      <c r="G35">
+        <v>0.169285718571997</v>
+      </c>
+      <c r="H35">
+        <v>0.909</v>
+      </c>
+      <c r="I35">
+        <v>0.783</v>
+      </c>
+      <c r="L35">
+        <v>0.00116</v>
+      </c>
+      <c r="M35">
+        <v>0.4295</v>
+      </c>
+      <c r="N35">
+        <v>0.494</v>
+      </c>
+      <c r="O35">
+        <v>0.7605</v>
+      </c>
+      <c r="P35">
+        <v>1792442.71298</v>
+      </c>
+      <c r="Q35">
+        <v>5531867.42326</v>
+      </c>
+      <c r="R35" t="s">
+        <v>45</v>
+      </c>
+      <c r="S35" t="s">
+        <v>46</v>
+      </c>
+      <c r="T35" t="s">
+        <v>47</v>
+      </c>
+      <c r="U35" t="s">
+        <v>48</v>
+      </c>
+      <c r="V35" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36">
+        <v>7.87</v>
+      </c>
+      <c r="G36">
+        <v>7.95241379310345</v>
+      </c>
+      <c r="H36">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="I36">
+        <v>9.1905</v>
+      </c>
+      <c r="L36">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="M36">
+        <v>8.565</v>
+      </c>
+      <c r="N36">
+        <v>8.6769</v>
+      </c>
+      <c r="O36">
+        <v>9.163600000000001</v>
+      </c>
+      <c r="P36">
+        <v>1792442.71298</v>
+      </c>
+      <c r="Q36">
+        <v>5531867.42326</v>
+      </c>
+      <c r="R36" t="s">
+        <v>45</v>
+      </c>
+      <c r="S36" t="s">
+        <v>46</v>
+      </c>
+      <c r="T36" t="s">
+        <v>47</v>
+      </c>
+      <c r="U36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37">
+        <v>2.125</v>
+      </c>
+      <c r="G37">
+        <v>2.40833333333333</v>
+      </c>
+      <c r="H37">
+        <v>5.93</v>
+      </c>
+      <c r="I37">
+        <v>4.63</v>
+      </c>
+      <c r="L37">
+        <v>3.6</v>
+      </c>
+      <c r="M37">
+        <v>3.61</v>
+      </c>
+      <c r="N37">
+        <v>3.68</v>
+      </c>
+      <c r="O37">
+        <v>4.531</v>
+      </c>
+      <c r="P37">
+        <v>1792442.71298</v>
+      </c>
+      <c r="Q37">
+        <v>5531867.42326</v>
+      </c>
+      <c r="R37" t="s">
+        <v>45</v>
+      </c>
+      <c r="S37" t="s">
+        <v>46</v>
+      </c>
+      <c r="T37" t="s">
+        <v>47</v>
+      </c>
+      <c r="U37" t="s">
+        <v>48</v>
+      </c>
+      <c r="V37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38">
+        <v>2.125</v>
+      </c>
+      <c r="G38">
+        <v>2.40833333333333</v>
+      </c>
+      <c r="H38">
+        <v>5.93</v>
+      </c>
+      <c r="I38">
+        <v>4.63</v>
+      </c>
+      <c r="L38">
+        <v>3.6</v>
+      </c>
+      <c r="M38">
+        <v>3.61</v>
+      </c>
+      <c r="N38">
+        <v>3.68</v>
+      </c>
+      <c r="O38">
+        <v>4.531</v>
+      </c>
+      <c r="P38">
+        <v>1792442.71298</v>
+      </c>
+      <c r="Q38">
+        <v>5531867.42326</v>
+      </c>
+      <c r="R38" t="s">
+        <v>45</v>
+      </c>
+      <c r="S38" t="s">
+        <v>46</v>
+      </c>
+      <c r="T38" t="s">
+        <v>47</v>
+      </c>
+      <c r="U38" t="s">
+        <v>48</v>
+      </c>
+      <c r="V38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39">
+        <v>0.221</v>
+      </c>
+      <c r="G39">
+        <v>0.408933333333333</v>
+      </c>
+      <c r="H39">
+        <v>1.94</v>
+      </c>
+      <c r="I39">
+        <v>1.15</v>
+      </c>
+      <c r="L39">
+        <v>0.612</v>
+      </c>
+      <c r="M39">
+        <v>0.616</v>
+      </c>
+      <c r="N39">
+        <v>0.6404</v>
+      </c>
+      <c r="O39">
+        <v>1.132</v>
+      </c>
+      <c r="P39">
+        <v>1792442.71298</v>
+      </c>
+      <c r="Q39">
+        <v>5531867.42326</v>
+      </c>
+      <c r="R39" t="s">
+        <v>45</v>
+      </c>
+      <c r="S39" t="s">
+        <v>46</v>
+      </c>
+      <c r="T39" t="s">
+        <v>47</v>
+      </c>
+      <c r="U39" t="s">
+        <v>48</v>
+      </c>
+      <c r="V39" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
